--- a/PROYECTO AUTENTICACION/Usuario SUNAT Administrados -  EXTRANET.xlsx
+++ b/PROYECTO AUTENTICACION/Usuario SUNAT Administrados -  EXTRANET.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO AUTENTICACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78BE584-1068-4BD9-8CC7-623E7EFFF2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DDC911-F0C6-4426-994C-EDEEFD649142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C1E1C67-DBCD-46B3-A4BD-4C3939D6E0A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2C1E1C67-DBCD-46B3-A4BD-4C3939D6E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Req 1" sheetId="1" r:id="rId1"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA88F1D-6FFA-46EA-A90B-665485E37A1C}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>3</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>4</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>13</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>16</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>17</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>18</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>20</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>21</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>22</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>24</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>25</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>31</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>32</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>33</v>
       </c>
@@ -2224,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F5F62A-8EFF-4201-A79A-FE649696B762}">
-  <dimension ref="A4:K24"/>
+  <dimension ref="A4:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,7 +2239,23 @@
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
     <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
@@ -2275,26 +2291,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+    <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20">
+        <v>20524378141</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>13</v>
@@ -2310,16 +2342,16 @@
         <v>20524378141</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>21</v>
@@ -2327,7 +2359,7 @@
     </row>
     <row r="8" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>13</v>
@@ -2343,57 +2375,57 @@
         <v>20524378141</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>4</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="20">
-        <v>20524378141</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="24" t="s">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26">
+        <v>20506601330</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>13</v>
@@ -2409,16 +2441,16 @@
         <v>20506601330</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="K10" s="30" t="s">
         <v>21</v>
@@ -2426,7 +2458,7 @@
     </row>
     <row r="11" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>13</v>
@@ -2442,57 +2474,57 @@
         <v>20506601330</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="20">
+        <v>10451247544</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
-        <v>8</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26">
-        <v>20506601330</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>13</v>
@@ -2508,57 +2540,57 @@
         <v>10451247544</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26">
+        <v>10452851461</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>11</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20">
-        <v>10451247544</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>13</v>
@@ -2574,10 +2606,10 @@
         <v>10452851461</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I15" s="29" t="s">
         <v>26</v>
@@ -2590,41 +2622,41 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
-        <v>14</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26">
-        <v>10452851461</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="30" t="s">
+      <c r="A16" s="19">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20">
+        <v>20100010136</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>13</v>
@@ -2640,10 +2672,10 @@
         <v>20100010136</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>66</v>
@@ -2657,7 +2689,7 @@
     </row>
     <row r="18" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>13</v>
@@ -2673,10 +2705,10 @@
         <v>20100010136</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>66</v>
@@ -2689,41 +2721,41 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20">
-        <v>20100010136</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="23" t="s">
+      <c r="A19" s="25">
+        <v>20</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26">
+        <v>20601720958</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>13</v>
@@ -2739,10 +2771,10 @@
         <v>20601720958</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I20" s="29" t="s">
         <v>66</v>
@@ -2756,7 +2788,7 @@
     </row>
     <row r="21" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>13</v>
@@ -2772,10 +2804,10 @@
         <v>20601720958</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>66</v>
@@ -2788,41 +2820,41 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
-        <v>22</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26">
-        <v>20601720958</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="29" t="s">
+      <c r="A22" s="19">
+        <v>24</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="20">
+        <v>20566429943</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>13</v>
@@ -2838,10 +2870,10 @@
         <v>20566429943</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I23" s="23" t="s">
         <v>66</v>
@@ -2853,59 +2885,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19">
-        <v>25</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20">
-        <v>20566429943</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{1BD4BAAA-805E-44B9-95BB-4E23ACDF18DE}"/>
-    <hyperlink ref="K8" r:id="rId2" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{BC176D70-837E-4712-8C58-811140AAB201}"/>
-    <hyperlink ref="K9" r:id="rId3" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{093CEF39-CCE8-49BF-843B-0DA656703F70}"/>
-    <hyperlink ref="K10" r:id="rId4" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{D2F53001-0134-4F82-A7E3-C9F22990899C}"/>
-    <hyperlink ref="K11" r:id="rId5" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{F343E9CC-A8CC-493A-9FC0-0BF0C214E2D2}"/>
-    <hyperlink ref="K12" r:id="rId6" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{AA276A32-0C0C-4541-A695-7639EBEC1C4B}"/>
-    <hyperlink ref="K13" r:id="rId7" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{3DAC5E3A-9682-406F-BCE9-A1EE0ED4B505}"/>
-    <hyperlink ref="K14" r:id="rId8" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{60758D5C-486C-4383-A0AE-C2B15D8CA7DE}"/>
-    <hyperlink ref="K15" r:id="rId9" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{694133E3-8ABA-464F-B1B1-9CD06EB81245}"/>
-    <hyperlink ref="K16" r:id="rId10" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{E02B0294-726B-4CF3-AB86-A08FC4E7E1FC}"/>
-    <hyperlink ref="K17" r:id="rId11" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{367FB7E7-B05A-40DF-9637-F28CEF97B933}"/>
-    <hyperlink ref="K18" r:id="rId12" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{ECCCDFB2-58FE-40A0-8D84-AADE2684CCE1}"/>
-    <hyperlink ref="K19" r:id="rId13" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{88A31AA8-C4CA-4A49-8E12-53DE261BEAF5}"/>
-    <hyperlink ref="K20" r:id="rId14" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{70BF2861-A3C9-4CAB-AB4E-D172DFFBB091}"/>
-    <hyperlink ref="K21" r:id="rId15" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{3708A582-25CA-4B6D-A313-C35B90FC0FA1}"/>
-    <hyperlink ref="K22" r:id="rId16" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{17CCF735-ACB7-4D9B-A227-90E16A17670A}"/>
-    <hyperlink ref="K23" r:id="rId17" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{06152F47-009E-48D0-B53C-B9D3EA100311}"/>
-    <hyperlink ref="K24" r:id="rId18" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{966FCF8D-3BB9-401B-B179-D513433C85DA}"/>
+    <hyperlink ref="K6" r:id="rId1" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{1BD4BAAA-805E-44B9-95BB-4E23ACDF18DE}"/>
+    <hyperlink ref="K7" r:id="rId2" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{BC176D70-837E-4712-8C58-811140AAB201}"/>
+    <hyperlink ref="K8" r:id="rId3" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{093CEF39-CCE8-49BF-843B-0DA656703F70}"/>
+    <hyperlink ref="K9" r:id="rId4" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{D2F53001-0134-4F82-A7E3-C9F22990899C}"/>
+    <hyperlink ref="K10" r:id="rId5" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{F343E9CC-A8CC-493A-9FC0-0BF0C214E2D2}"/>
+    <hyperlink ref="K11" r:id="rId6" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{AA276A32-0C0C-4541-A695-7639EBEC1C4B}"/>
+    <hyperlink ref="K12" r:id="rId7" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{3DAC5E3A-9682-406F-BCE9-A1EE0ED4B505}"/>
+    <hyperlink ref="K13" r:id="rId8" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{60758D5C-486C-4383-A0AE-C2B15D8CA7DE}"/>
+    <hyperlink ref="K14" r:id="rId9" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{694133E3-8ABA-464F-B1B1-9CD06EB81245}"/>
+    <hyperlink ref="K15" r:id="rId10" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{E02B0294-726B-4CF3-AB86-A08FC4E7E1FC}"/>
+    <hyperlink ref="K16" r:id="rId11" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{367FB7E7-B05A-40DF-9637-F28CEF97B933}"/>
+    <hyperlink ref="K17" r:id="rId12" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{ECCCDFB2-58FE-40A0-8D84-AADE2684CCE1}"/>
+    <hyperlink ref="K18" r:id="rId13" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{88A31AA8-C4CA-4A49-8E12-53DE261BEAF5}"/>
+    <hyperlink ref="K19" r:id="rId14" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{70BF2861-A3C9-4CAB-AB4E-D172DFFBB091}"/>
+    <hyperlink ref="K20" r:id="rId15" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{3708A582-25CA-4B6D-A313-C35B90FC0FA1}"/>
+    <hyperlink ref="K21" r:id="rId16" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{17CCF735-ACB7-4D9B-A227-90E16A17670A}"/>
+    <hyperlink ref="K22" r:id="rId17" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{06152F47-009E-48D0-B53C-B9D3EA100311}"/>
+    <hyperlink ref="K23" r:id="rId18" display="mailto:rhuapaya@mincetur.gob.pe" xr:uid="{966FCF8D-3BB9-401B-B179-D513433C85DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3302,6 +3301,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2ceadb279047650dfe426ba3e3380dd2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff791535c28e4d58edbfde2b679c9ba4" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -3556,27 +3575,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F98F898-40A8-4E48-81C4-9B409F62848D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
+    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="328335c8-173a-4c26-85d0-3846c13a1e29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373A6946-8449-493B-88BB-EC88B266F382}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{463113FC-0DD9-45CD-A881-27651D6A89A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3593,23 +3611,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373A6946-8449-493B-88BB-EC88B266F382}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F98F898-40A8-4E48-81C4-9B409F62848D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
-    <ds:schemaRef ds:uri="328335c8-173a-4c26-85d0-3846c13a1e29"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>